--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/NEW_JERSEY_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/NEW_JERSEY_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1055"/>
+  <dimension ref="A1:D1049"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -602,7 +602,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C17">
@@ -628,7 +628,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C19">
@@ -654,7 +654,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C21">
@@ -693,7 +693,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C24">
@@ -732,7 +732,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C27">
@@ -940,7 +940,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C43">
@@ -1005,7 +1005,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C48">
@@ -1405,7 +1405,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C78">
@@ -1488,7 +1488,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C88">
@@ -1745,7 +1745,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C103">
@@ -1784,12 +1784,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C106">
@@ -1815,7 +1815,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C108">
@@ -1828,7 +1828,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C109">
@@ -1893,7 +1893,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C114">
@@ -1958,7 +1958,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C119">
@@ -2010,7 +2010,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C123">
@@ -2101,7 +2101,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C130">
@@ -2153,7 +2153,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C134">
@@ -2296,7 +2296,7 @@
     <row r="145">
       <c r="B145" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C145">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C154">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C155">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C161">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C168">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C172">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C173">
@@ -2673,7 +2673,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C174">
@@ -2686,7 +2686,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C175">
@@ -2764,7 +2764,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -2808,7 +2808,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C184">
@@ -2899,7 +2899,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C191">
@@ -2951,7 +2951,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C195">
@@ -3042,7 +3042,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C202">
@@ -3055,7 +3055,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C203">
@@ -3094,7 +3094,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C206">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C210">
@@ -3182,7 +3182,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C212">
@@ -3195,7 +3195,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerero</t>
+          <t>Alcozauca De Guerero</t>
         </is>
       </c>
       <c r="C213">
@@ -3247,7 +3247,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C217">
@@ -3260,7 +3260,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C218">
@@ -3286,7 +3286,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C220">
@@ -3299,7 +3299,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C221">
@@ -3338,7 +3338,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C224">
@@ -3351,7 +3351,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C225">
@@ -3364,7 +3364,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C226">
@@ -3403,7 +3403,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C229">
@@ -3416,7 +3416,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C230">
@@ -3468,7 +3468,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C234">
@@ -3481,7 +3481,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C235">
@@ -3533,7 +3533,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C239">
@@ -3559,7 +3559,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C241">
@@ -3611,7 +3611,7 @@
     <row r="245">
       <c r="B245" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C245">
@@ -3741,7 +3741,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C255">
@@ -3767,7 +3767,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C257">
@@ -3845,7 +3845,7 @@
     <row r="263">
       <c r="B263" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C263">
@@ -3858,7 +3858,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C264">
@@ -3993,7 +3993,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C274">
@@ -4058,7 +4058,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C279">
@@ -4097,7 +4097,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C282">
@@ -4214,7 +4214,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C291">
@@ -4227,7 +4227,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C292">
@@ -4240,7 +4240,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C293">
@@ -4266,7 +4266,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C295">
@@ -4357,7 +4357,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C302">
@@ -4370,7 +4370,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C303">
@@ -4383,7 +4383,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C304">
@@ -4409,7 +4409,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C306">
@@ -4570,7 +4570,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C318">
@@ -4622,7 +4622,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C322">
@@ -4648,7 +4648,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C324">
@@ -4687,7 +4687,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C327">
@@ -4700,7 +4700,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C328">
@@ -4713,7 +4713,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C329">
@@ -4791,7 +4791,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C335">
@@ -4830,7 +4830,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>Zapotitlán de Vadillo</t>
+          <t>Zapotitlán De Vadillo</t>
         </is>
       </c>
       <c r="C338">
@@ -4952,7 +4952,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C347">
@@ -5368,7 +5368,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C379">
@@ -5633,7 +5633,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C399">
@@ -5659,7 +5659,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C401">
@@ -5737,7 +5737,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C407">
@@ -5763,7 +5763,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C409">
@@ -5854,7 +5854,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C416">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C418">
@@ -6064,7 +6064,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C431">
@@ -6155,7 +6155,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Capulálpam de Méndez</t>
+          <t>Capulálpam De Méndez</t>
         </is>
       </c>
       <c r="C438">
@@ -6181,7 +6181,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C440">
@@ -6194,7 +6194,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C441">
@@ -6207,7 +6207,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C442">
@@ -6246,7 +6246,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C445">
@@ -6259,7 +6259,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Guadalupe de Ramírez</t>
+          <t>Guadalupe De Ramírez</t>
         </is>
       </c>
       <c r="C446">
@@ -6272,7 +6272,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C447">
@@ -6285,7 +6285,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C448">
@@ -6298,7 +6298,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C449">
@@ -6311,7 +6311,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C450">
@@ -6324,7 +6324,7 @@
     <row r="451">
       <c r="B451" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C451">
@@ -6337,7 +6337,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C452">
@@ -6350,7 +6350,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C453">
@@ -6441,7 +6441,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C460">
@@ -6454,7 +6454,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C461">
@@ -6480,7 +6480,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C463">
@@ -6506,7 +6506,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C465">
@@ -6532,7 +6532,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C467">
@@ -6558,7 +6558,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C469">
@@ -6571,7 +6571,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C470">
@@ -6584,7 +6584,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C471">
@@ -6610,7 +6610,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerero</t>
+          <t>Putla Villa De Guerero</t>
         </is>
       </c>
       <c r="C473">
@@ -6714,7 +6714,7 @@
     <row r="481">
       <c r="B481" t="inlineStr">
         <is>
-          <t>San Antonio de la Cal</t>
+          <t>San Antonio De La Cal</t>
         </is>
       </c>
       <c r="C481">
@@ -6818,7 +6818,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C489">
@@ -6896,7 +6896,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C495">
@@ -6961,7 +6961,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C500">
@@ -7351,7 +7351,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C530">
@@ -7364,7 +7364,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>San Miguel del Río</t>
+          <t>San Miguel Del Río</t>
         </is>
       </c>
       <c r="C531">
@@ -7624,7 +7624,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C551">
@@ -7806,7 +7806,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C565">
@@ -7936,7 +7936,7 @@
     <row r="575">
       <c r="B575" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C575">
@@ -8144,7 +8144,7 @@
     <row r="591">
       <c r="B591" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C591">
@@ -8248,7 +8248,7 @@
     <row r="599">
       <c r="B599" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C599">
@@ -8313,7 +8313,7 @@
     <row r="604">
       <c r="B604" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C604">
@@ -8703,7 +8703,7 @@
     <row r="634">
       <c r="B634" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C634">
@@ -8872,7 +8872,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C647">
@@ -8885,7 +8885,7 @@
     <row r="648">
       <c r="B648" t="inlineStr">
         <is>
-          <t>Teococuilco de Marcos Pérez</t>
+          <t>Teococuilco De Marcos Pérez</t>
         </is>
       </c>
       <c r="C648">
@@ -8898,7 +8898,7 @@
     <row r="649">
       <c r="B649" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C649">
@@ -8911,7 +8911,7 @@
     <row r="650">
       <c r="B650" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C650">
@@ -8924,7 +8924,7 @@
     <row r="651">
       <c r="B651" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C651">
@@ -8937,7 +8937,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C652">
@@ -8950,7 +8950,7 @@
     <row r="653">
       <c r="B653" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C653">
@@ -8976,7 +8976,7 @@
     <row r="655">
       <c r="B655" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C655">
@@ -8989,7 +8989,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C656">
@@ -9002,7 +9002,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C657">
@@ -9015,7 +9015,7 @@
     <row r="658">
       <c r="B658" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C658">
@@ -9041,7 +9041,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C660">
@@ -9054,7 +9054,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Villa Talea de Castro</t>
+          <t>Villa Talea De Castro</t>
         </is>
       </c>
       <c r="C661">
@@ -9067,7 +9067,7 @@
     <row r="662">
       <c r="B662" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C662">
@@ -9093,7 +9093,7 @@
     <row r="664">
       <c r="B664" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C664">
@@ -9397,7 +9397,7 @@
     <row r="687">
       <c r="B687" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerero</t>
+          <t>Ayotoxco De Guerero</t>
         </is>
       </c>
       <c r="C687">
@@ -9462,7 +9462,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C692">
@@ -9605,7 +9605,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C703">
@@ -9735,7 +9735,7 @@
     <row r="713">
       <c r="B713" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C713">
@@ -9748,7 +9748,7 @@
     <row r="714">
       <c r="B714" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C714">
@@ -9917,7 +9917,7 @@
     <row r="727">
       <c r="B727" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C727">
@@ -9930,7 +9930,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C728">
@@ -9982,7 +9982,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerero</t>
+          <t>Ixcamilpa De Guerero</t>
         </is>
       </c>
       <c r="C732">
@@ -10021,7 +10021,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C735">
@@ -10151,7 +10151,7 @@
     <row r="745">
       <c r="B745" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C745">
@@ -10281,7 +10281,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C755">
@@ -10398,7 +10398,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>San Diego la Mesa Tochimiltzingo</t>
+          <t>San Diego La Mesa Tochimiltzingo</t>
         </is>
       </c>
       <c r="C764">
@@ -10619,7 +10619,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C781">
@@ -10671,7 +10671,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C785">
@@ -10684,7 +10684,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C786">
@@ -10801,7 +10801,7 @@
     <row r="795">
       <c r="B795" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C795">
@@ -10892,7 +10892,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C802">
@@ -10905,7 +10905,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C803">
@@ -10970,7 +10970,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C808">
@@ -10996,7 +10996,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C810">
@@ -11061,7 +11061,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C815">
@@ -11139,7 +11139,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerero</t>
+          <t>Totoltepec De Guerero</t>
         </is>
       </c>
       <c r="C821">
@@ -11204,7 +11204,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C826">
@@ -11282,7 +11282,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C832">
@@ -11443,7 +11443,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C844">
@@ -11469,7 +11469,7 @@
     <row r="846">
       <c r="B846" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C846">
@@ -11495,7 +11495,7 @@
     <row r="848">
       <c r="B848" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C848">
@@ -11521,7 +11521,7 @@
     <row r="850">
       <c r="B850" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C850">
@@ -11609,7 +11609,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C856">
@@ -11622,7 +11622,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C857">
@@ -11739,7 +11739,7 @@
     <row r="866">
       <c r="B866" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C866">
@@ -11752,7 +11752,7 @@
     <row r="867">
       <c r="B867" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C867">
@@ -11988,7 +11988,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C884">
@@ -12167,7 +12167,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C897">
@@ -12219,7 +12219,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C901">
@@ -12284,7 +12284,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C906">
@@ -12310,7 +12310,7 @@
     <row r="908">
       <c r="B908" t="inlineStr">
         <is>
-          <t>Mazatecochco de José María Morelos</t>
+          <t>Mazatecochco De José María Morelos</t>
         </is>
       </c>
       <c r="C908">
@@ -12323,7 +12323,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C909">
@@ -12362,7 +12362,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C912">
@@ -12388,7 +12388,7 @@
     <row r="914">
       <c r="B914" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C914">
@@ -12679,7 +12679,7 @@
     <row r="936">
       <c r="B936" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C936">
@@ -12718,7 +12718,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C939">
@@ -12757,7 +12757,7 @@
     <row r="942">
       <c r="B942" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C942">
@@ -12887,7 +12887,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C952">
@@ -12900,7 +12900,7 @@
     <row r="953">
       <c r="B953" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C953">
@@ -13056,7 +13056,7 @@
     <row r="965">
       <c r="B965" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C965">
@@ -13069,7 +13069,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Huiloapan de Cuauhtémoc</t>
+          <t>Huiloapan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C966">
@@ -13082,7 +13082,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C967">
@@ -13134,7 +13134,7 @@
     <row r="971">
       <c r="B971" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C971">
@@ -13147,7 +13147,7 @@
     <row r="972">
       <c r="B972" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C972">
@@ -13251,7 +13251,7 @@
     <row r="980">
       <c r="B980" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C980">
@@ -13303,7 +13303,7 @@
     <row r="984">
       <c r="B984" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C984">
@@ -13329,7 +13329,7 @@
     <row r="986">
       <c r="B986" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C986">
@@ -13355,7 +13355,7 @@
     <row r="988">
       <c r="B988" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C988">
@@ -13472,7 +13472,7 @@
     <row r="997">
       <c r="B997" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C997">
@@ -13498,7 +13498,7 @@
     <row r="999">
       <c r="B999" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C999">
@@ -13875,7 +13875,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1028">
@@ -13940,7 +13940,7 @@
     <row r="1033">
       <c r="B1033" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1033">
@@ -13953,7 +13953,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Zozocolco de Hidalgo</t>
+          <t>Zozocolco De Hidalgo</t>
         </is>
       </c>
       <c r="C1034">
@@ -14119,7 +14119,7 @@
     <row r="1046">
       <c r="B1046" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1046">
@@ -14166,41 +14166,6 @@
       </c>
       <c r="D1049">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1051">
-      <c r="B1051" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="1052">
-      <c r="B1052" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1053">
-      <c r="B1053" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1054">
-      <c r="B1054" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1055">
-      <c r="B1055" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>
